--- a/data/panelapp/au/Callosome.xlsx
+++ b/data/panelapp/au/Callosome.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888103</t>
+          <t>2021-10-05 14:33:20.653691</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888115</t>
+          <t>2021-10-05 14:33:20.653701</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888118</t>
+          <t>2021-10-05 14:33:20.653704</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888121</t>
+          <t>2021-10-05 14:33:20.653707</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888124</t>
+          <t>2021-10-05 14:33:20.653710</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888126</t>
+          <t>2021-10-05 14:33:20.653713</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888129</t>
+          <t>2021-10-05 14:33:20.653716</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888131</t>
+          <t>2021-10-05 14:33:20.653719</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888134</t>
+          <t>2021-10-05 14:33:20.653722</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888137</t>
+          <t>2021-10-05 14:33:20.653724</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888140</t>
+          <t>2021-10-05 14:33:20.653727</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888142</t>
+          <t>2021-10-05 14:33:20.653730</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888145</t>
+          <t>2021-10-05 14:33:20.653732</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888147</t>
+          <t>2021-10-05 14:33:20.653735</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888150</t>
+          <t>2021-10-05 14:33:20.653738</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888153</t>
+          <t>2021-10-05 14:33:20.653740</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888155</t>
+          <t>2021-10-05 14:33:20.653744</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888158</t>
+          <t>2021-10-05 14:33:20.653746</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888161</t>
+          <t>2021-10-05 14:33:20.653749</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888163</t>
+          <t>2021-10-05 14:33:20.653752</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888166</t>
+          <t>2021-10-05 14:33:20.653754</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888168</t>
+          <t>2021-10-05 14:33:20.653757</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888171</t>
+          <t>2021-10-05 14:33:20.653760</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888173</t>
+          <t>2021-10-05 14:33:20.653763</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888176</t>
+          <t>2021-10-05 14:33:20.653766</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888179</t>
+          <t>2021-10-05 14:33:20.653769</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888182</t>
+          <t>2021-10-05 14:33:20.653772</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888184</t>
+          <t>2021-10-05 14:33:20.653775</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888187</t>
+          <t>2021-10-05 14:33:20.653777</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888189</t>
+          <t>2021-10-05 14:33:20.653780</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888192</t>
+          <t>2021-10-05 14:33:20.653783</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888194</t>
+          <t>2021-10-05 14:33:20.653785</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888197</t>
+          <t>2021-10-05 14:33:20.653788</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888200</t>
+          <t>2021-10-05 14:33:20.653791</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888203</t>
+          <t>2021-10-05 14:33:20.653794</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888205</t>
+          <t>2021-10-05 14:33:20.653797</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888208</t>
+          <t>2021-10-05 14:33:20.653800</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888210</t>
+          <t>2021-10-05 14:33:20.653803</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888213</t>
+          <t>2021-10-05 14:33:20.653806</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888215</t>
+          <t>2021-10-05 14:33:20.653808</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888218</t>
+          <t>2021-10-05 14:33:20.653812</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888221</t>
+          <t>2021-10-05 14:33:20.653814</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888224</t>
+          <t>2021-10-05 14:33:20.653817</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888226</t>
+          <t>2021-10-05 14:33:20.653820</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888229</t>
+          <t>2021-10-05 14:33:20.653823</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888232</t>
+          <t>2021-10-05 14:33:20.653825</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888234</t>
+          <t>2021-10-05 14:33:20.653828</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888236</t>
+          <t>2021-10-05 14:33:20.653831</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888239</t>
+          <t>2021-10-05 14:33:20.653834</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888242</t>
+          <t>2021-10-05 14:33:20.653837</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888244</t>
+          <t>2021-10-05 14:33:20.653840</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888247</t>
+          <t>2021-10-05 14:33:20.653842</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888250</t>
+          <t>2021-10-05 14:33:20.653845</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888252</t>
+          <t>2021-10-05 14:33:20.653848</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888255</t>
+          <t>2021-10-05 14:33:20.653851</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888257</t>
+          <t>2021-10-05 14:33:20.653854</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888260</t>
+          <t>2021-10-05 14:33:20.653857</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888262</t>
+          <t>2021-10-05 14:33:20.653860</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888265</t>
+          <t>2021-10-05 14:33:20.653862</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888267</t>
+          <t>2021-10-05 14:33:20.653865</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888270</t>
+          <t>2021-10-05 14:33:20.653868</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888272</t>
+          <t>2021-10-05 14:33:20.653871</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888275</t>
+          <t>2021-10-05 14:33:20.653874</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888277</t>
+          <t>2021-10-05 14:33:20.653876</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888281</t>
+          <t>2021-10-05 14:33:20.653880</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888284</t>
+          <t>2021-10-05 14:33:20.653883</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888286</t>
+          <t>2021-10-05 14:33:20.653886</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888289</t>
+          <t>2021-10-05 14:33:20.653889</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888291</t>
+          <t>2021-10-05 14:33:20.653892</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888294</t>
+          <t>2021-10-05 14:33:20.653894</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888296</t>
+          <t>2021-10-05 14:33:20.653897</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888299</t>
+          <t>2021-10-05 14:33:20.653900</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888301</t>
+          <t>2021-10-05 14:33:20.653903</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888304</t>
+          <t>2021-10-05 14:33:20.653905</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888306</t>
+          <t>2021-10-05 14:33:20.653908</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888309</t>
+          <t>2021-10-05 14:33:20.653911</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888313</t>
+          <t>2021-10-05 14:33:20.653916</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888316</t>
+          <t>2021-10-05 14:33:20.653920</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888319</t>
+          <t>2021-10-05 14:33:20.653923</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888321</t>
+          <t>2021-10-05 14:33:20.653925</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888324</t>
+          <t>2021-10-05 14:33:20.653928</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888326</t>
+          <t>2021-10-05 14:33:20.653931</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888329</t>
+          <t>2021-10-05 14:33:20.653933</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888331</t>
+          <t>2021-10-05 14:33:20.653936</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888334</t>
+          <t>2021-10-05 14:33:20.653939</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888336</t>
+          <t>2021-10-05 14:33:20.653941</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888338</t>
+          <t>2021-10-05 14:33:20.653944</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888341</t>
+          <t>2021-10-05 14:33:20.653946</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888343</t>
+          <t>2021-10-05 14:33:20.653949</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888346</t>
+          <t>2021-10-05 14:33:20.653952</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888349</t>
+          <t>2021-10-05 14:33:20.653955</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888351</t>
+          <t>2021-10-05 14:33:20.653957</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888355</t>
+          <t>2021-10-05 14:33:20.653962</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888358</t>
+          <t>2021-10-05 14:33:20.653965</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888360</t>
+          <t>2021-10-05 14:33:20.653968</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888363</t>
+          <t>2021-10-05 14:33:20.653970</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888365</t>
+          <t>2021-10-05 14:33:20.653973</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888368</t>
+          <t>2021-10-05 14:33:20.653976</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888370</t>
+          <t>2021-10-05 14:33:20.653979</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888373</t>
+          <t>2021-10-05 14:33:20.653982</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888375</t>
+          <t>2021-10-05 14:33:20.653985</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888378</t>
+          <t>2021-10-05 14:33:20.653988</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888380</t>
+          <t>2021-10-05 14:33:20.653990</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888383</t>
+          <t>2021-10-05 14:33:20.653993</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888385</t>
+          <t>2021-10-05 14:33:20.653996</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888388</t>
+          <t>2021-10-05 14:33:20.653999</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888390</t>
+          <t>2021-10-05 14:33:20.654001</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888393</t>
+          <t>2021-10-05 14:33:20.654004</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888398</t>
+          <t>2021-10-05 14:33:20.654009</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888401</t>
+          <t>2021-10-05 14:33:20.654013</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888403</t>
+          <t>2021-10-05 14:33:20.654015</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888406</t>
+          <t>2021-10-05 14:33:20.654018</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888408</t>
+          <t>2021-10-05 14:33:20.654021</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888411</t>
+          <t>2021-10-05 14:33:20.654024</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888413</t>
+          <t>2021-10-05 14:33:20.654026</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888416</t>
+          <t>2021-10-05 14:33:20.654029</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888418</t>
+          <t>2021-10-05 14:33:20.654032</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888421</t>
+          <t>2021-10-05 14:33:20.654035</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888424</t>
+          <t>2021-10-05 14:33:20.654038</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888426</t>
+          <t>2021-10-05 14:33:20.654041</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888428</t>
+          <t>2021-10-05 14:33:20.654043</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888431</t>
+          <t>2021-10-05 14:33:20.654046</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888433</t>
+          <t>2021-10-05 14:33:20.654049</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888436</t>
+          <t>2021-10-05 14:33:20.654051</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888438</t>
+          <t>2021-10-05 14:33:20.654054</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888441</t>
+          <t>2021-10-05 14:33:20.654056</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888443</t>
+          <t>2021-10-05 14:33:20.654059</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888446</t>
+          <t>2021-10-05 14:33:20.654062</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888450</t>
+          <t>2021-10-05 14:33:20.654067</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888453</t>
+          <t>2021-10-05 14:33:20.654070</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888456</t>
+          <t>2021-10-05 14:33:20.654073</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888459</t>
+          <t>2021-10-05 14:33:20.654076</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888461</t>
+          <t>2021-10-05 14:33:20.654078</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888463</t>
+          <t>2021-10-05 14:33:20.654081</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888466</t>
+          <t>2021-10-05 14:33:20.654084</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888468</t>
+          <t>2021-10-05 14:33:20.654087</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888471</t>
+          <t>2021-10-05 14:33:20.654089</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888474</t>
+          <t>2021-10-05 14:33:20.654092</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888476</t>
+          <t>2021-10-05 14:33:20.654095</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888479</t>
+          <t>2021-10-05 14:33:20.654097</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888481</t>
+          <t>2021-10-05 14:33:20.654100</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888484</t>
+          <t>2021-10-05 14:33:20.654103</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888486</t>
+          <t>2021-10-05 14:33:20.654105</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888489</t>
+          <t>2021-10-05 14:33:20.654121</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888491</t>
+          <t>2021-10-05 14:33:20.654133</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888494</t>
+          <t>2021-10-05 14:33:20.654136</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888496</t>
+          <t>2021-10-05 14:33:20.654139</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888499</t>
+          <t>2021-10-05 14:33:20.654142</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888502</t>
+          <t>2021-10-05 14:33:20.654146</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888505</t>
+          <t>2021-10-05 14:33:20.654149</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888507</t>
+          <t>2021-10-05 14:33:20.654152</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888510</t>
+          <t>2021-10-05 14:33:20.654154</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888512</t>
+          <t>2021-10-05 14:33:20.654157</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888515</t>
+          <t>2021-10-05 14:33:20.654160</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888517</t>
+          <t>2021-10-05 14:33:20.654162</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888520</t>
+          <t>2021-10-05 14:33:20.654165</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888522</t>
+          <t>2021-10-05 14:33:20.654168</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888525</t>
+          <t>2021-10-05 14:33:20.654170</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888527</t>
+          <t>2021-10-05 14:33:20.654173</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888530</t>
+          <t>2021-10-05 14:33:20.654176</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888532</t>
+          <t>2021-10-05 14:33:20.654178</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888535</t>
+          <t>2021-10-05 14:33:20.654181</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888537</t>
+          <t>2021-10-05 14:33:20.654184</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888540</t>
+          <t>2021-10-05 14:33:20.654186</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888542</t>
+          <t>2021-10-05 14:33:20.654189</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888545</t>
+          <t>2021-10-05 14:33:20.654192</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888547</t>
+          <t>2021-10-05 14:33:20.654194</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888550</t>
+          <t>2021-10-05 14:33:20.654197</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888552</t>
+          <t>2021-10-05 14:33:20.654200</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888555</t>
+          <t>2021-10-05 14:33:20.654202</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888557</t>
+          <t>2021-10-05 14:33:20.654205</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888560</t>
+          <t>2021-10-05 14:33:20.654208</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888563</t>
+          <t>2021-10-05 14:33:20.654212</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888566</t>
+          <t>2021-10-05 14:33:20.654216</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888569</t>
+          <t>2021-10-05 14:33:20.654219</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888571</t>
+          <t>2021-10-05 14:33:20.654222</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888574</t>
+          <t>2021-10-05 14:33:20.654224</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888576</t>
+          <t>2021-10-05 14:33:20.654227</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888579</t>
+          <t>2021-10-05 14:33:20.654230</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888581</t>
+          <t>2021-10-05 14:33:20.654232</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888584</t>
+          <t>2021-10-05 14:33:20.654235</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888586</t>
+          <t>2021-10-05 14:33:20.654238</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888589</t>
+          <t>2021-10-05 14:33:20.654241</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888591</t>
+          <t>2021-10-05 14:33:20.654243</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888594</t>
+          <t>2021-10-05 14:33:20.654246</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888596</t>
+          <t>2021-10-05 14:33:20.654248</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888599</t>
+          <t>2021-10-05 14:33:20.654251</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888601</t>
+          <t>2021-10-05 14:33:20.654254</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888604</t>
+          <t>2021-10-05 14:33:20.654257</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888606</t>
+          <t>2021-10-05 14:33:20.654260</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888608</t>
+          <t>2021-10-05 14:33:20.654262</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888611</t>
+          <t>2021-10-05 14:33:20.654265</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888614</t>
+          <t>2021-10-05 14:33:20.654267</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888616</t>
+          <t>2021-10-05 14:33:20.654270</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888619</t>
+          <t>2021-10-05 14:33:20.654273</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888621</t>
+          <t>2021-10-05 14:33:20.654276</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888624</t>
+          <t>2021-10-05 14:33:20.654278</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888627</t>
+          <t>2021-10-05 14:33:20.654281</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888629</t>
+          <t>2021-10-05 14:33:20.654284</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888632</t>
+          <t>2021-10-05 14:33:20.654286</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888635</t>
+          <t>2021-10-05 14:33:20.654290</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888637</t>
+          <t>2021-10-05 14:33:20.654293</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888640</t>
+          <t>2021-10-05 14:33:20.654296</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888642</t>
+          <t>2021-10-05 14:33:20.654298</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888645</t>
+          <t>2021-10-05 14:33:20.654301</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888648</t>
+          <t>2021-10-05 14:33:20.654304</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888650</t>
+          <t>2021-10-05 14:33:20.654307</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888653</t>
+          <t>2021-10-05 14:33:20.654309</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888656</t>
+          <t>2021-10-05 14:33:20.654312</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888658</t>
+          <t>2021-10-05 14:33:20.654315</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888661</t>
+          <t>2021-10-05 14:33:20.654317</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888663</t>
+          <t>2021-10-05 14:33:20.654320</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888666</t>
+          <t>2021-10-05 14:33:20.654323</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888668</t>
+          <t>2021-10-05 14:33:20.654325</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888671</t>
+          <t>2021-10-05 14:33:20.654328</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888673</t>
+          <t>2021-10-05 14:33:20.654331</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888680</t>
+          <t>2021-10-05 14:33:20.654333</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888683</t>
+          <t>2021-10-05 14:33:20.654336</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888686</t>
+          <t>2021-10-05 14:33:20.654339</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888688</t>
+          <t>2021-10-05 14:33:20.654342</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888691</t>
+          <t>2021-10-05 14:33:20.654345</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888693</t>
+          <t>2021-10-05 14:33:20.654347</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888696</t>
+          <t>2021-10-05 14:33:20.654350</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888698</t>
+          <t>2021-10-05 14:33:20.654352</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888701</t>
+          <t>2021-10-05 14:33:20.654355</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888703</t>
+          <t>2021-10-05 14:33:20.654358</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888706</t>
+          <t>2021-10-05 14:33:20.654360</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888708</t>
+          <t>2021-10-05 14:33:20.654363</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888711</t>
+          <t>2021-10-05 14:33:20.654366</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888713</t>
+          <t>2021-10-05 14:33:20.654368</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888716</t>
+          <t>2021-10-05 14:33:20.654371</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888719</t>
+          <t>2021-10-05 14:33:20.654374</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888723</t>
+          <t>2021-10-05 14:33:20.654378</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888726</t>
+          <t>2021-10-05 14:33:20.654381</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888728</t>
+          <t>2021-10-05 14:33:20.654384</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888731</t>
+          <t>2021-10-05 14:33:20.654387</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888733</t>
+          <t>2021-10-05 14:33:20.654390</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888736</t>
+          <t>2021-10-05 14:33:20.654392</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888738</t>
+          <t>2021-10-05 14:33:20.654395</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888741</t>
+          <t>2021-10-05 14:33:20.654398</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888743</t>
+          <t>2021-10-05 14:33:20.654400</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888745</t>
+          <t>2021-10-05 14:33:20.654403</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888748</t>
+          <t>2021-10-05 14:33:20.654406</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888750</t>
+          <t>2021-10-05 14:33:20.654408</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888753</t>
+          <t>2021-10-05 14:33:20.654411</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888756</t>
+          <t>2021-10-05 14:33:20.654413</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888758</t>
+          <t>2021-10-05 14:33:20.654416</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888761</t>
+          <t>2021-10-05 14:33:20.654419</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888763</t>
+          <t>2021-10-05 14:33:20.654425</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888766</t>
+          <t>2021-10-05 14:33:20.654428</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888768</t>
+          <t>2021-10-05 14:33:20.654431</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888771</t>
+          <t>2021-10-05 14:33:20.654434</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888773</t>
+          <t>2021-10-05 14:33:20.654436</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888776</t>
+          <t>2021-10-05 14:33:20.654439</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888779</t>
+          <t>2021-10-05 14:33:20.654442</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888781</t>
+          <t>2021-10-05 14:33:20.654444</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888784</t>
+          <t>2021-10-05 14:33:20.654447</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888786</t>
+          <t>2021-10-05 14:33:20.654450</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888789</t>
+          <t>2021-10-05 14:33:20.654452</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888791</t>
+          <t>2021-10-05 14:33:20.654455</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888794</t>
+          <t>2021-10-05 14:33:20.654458</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888796</t>
+          <t>2021-10-05 14:33:20.654460</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888799</t>
+          <t>2021-10-05 14:33:20.654463</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888801</t>
+          <t>2021-10-05 14:33:20.654466</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888804</t>
+          <t>2021-10-05 14:33:20.654468</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888806</t>
+          <t>2021-10-05 14:33:20.654471</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888809</t>
+          <t>2021-10-05 14:33:20.654473</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888811</t>
+          <t>2021-10-05 14:33:20.654476</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888814</t>
+          <t>2021-10-05 14:33:20.654479</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888817</t>
+          <t>2021-10-05 14:33:20.654482</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888820</t>
+          <t>2021-10-05 14:33:20.654485</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888822</t>
+          <t>2021-10-05 14:33:20.654488</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888825</t>
+          <t>2021-10-05 14:33:20.654491</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888827</t>
+          <t>2021-10-05 14:33:20.654494</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888830</t>
+          <t>2021-10-05 14:33:20.654496</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888832</t>
+          <t>2021-10-05 14:33:20.654499</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888834</t>
+          <t>2021-10-05 14:33:20.654502</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888837</t>
+          <t>2021-10-05 14:33:20.654504</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888840</t>
+          <t>2021-10-05 14:33:20.654507</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888842</t>
+          <t>2021-10-05 14:33:20.654510</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888844</t>
+          <t>2021-10-05 14:33:20.654512</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888847</t>
+          <t>2021-10-05 14:33:20.654515</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888849</t>
+          <t>2021-10-05 14:33:20.654518</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888852</t>
+          <t>2021-10-05 14:33:20.654521</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888854</t>
+          <t>2021-10-05 14:33:20.654523</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888857</t>
+          <t>2021-10-05 14:33:20.654526</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888859</t>
+          <t>2021-10-05 14:33:20.654529</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888862</t>
+          <t>2021-10-05 14:33:20.654531</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888864</t>
+          <t>2021-10-05 14:33:20.654534</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888866</t>
+          <t>2021-10-05 14:33:20.654537</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888869</t>
+          <t>2021-10-05 14:33:20.654540</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888871</t>
+          <t>2021-10-05 14:33:20.654542</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888874</t>
+          <t>2021-10-05 14:33:20.654545</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888876</t>
+          <t>2021-10-05 14:33:20.654548</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888879</t>
+          <t>2021-10-05 14:33:20.654550</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888881</t>
+          <t>2021-10-05 14:33:20.654553</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888884</t>
+          <t>2021-10-05 14:33:20.654556</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888886</t>
+          <t>2021-10-05 14:33:20.654558</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888889</t>
+          <t>2021-10-05 14:33:20.654561</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888891</t>
+          <t>2021-10-05 14:33:20.654564</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888894</t>
+          <t>2021-10-05 14:33:20.654566</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888896</t>
+          <t>2021-10-05 14:33:20.654569</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888899</t>
+          <t>2021-10-05 14:33:20.654572</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888901</t>
+          <t>2021-10-05 14:33:20.654574</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888903</t>
+          <t>2021-10-05 14:33:20.654577</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888906</t>
+          <t>2021-10-05 14:33:20.654580</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888908</t>
+          <t>2021-10-05 14:33:20.654582</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888911</t>
+          <t>2021-10-05 14:33:20.654585</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888915</t>
+          <t>2021-10-05 14:33:20.654589</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888918</t>
+          <t>2021-10-05 14:33:20.654593</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888921</t>
+          <t>2021-10-05 14:33:20.654595</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888923</t>
+          <t>2021-10-05 14:33:20.654598</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888925</t>
+          <t>2021-10-05 14:33:20.654601</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888928</t>
+          <t>2021-10-05 14:33:20.654604</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888930</t>
+          <t>2021-10-05 14:33:20.654606</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888933</t>
+          <t>2021-10-05 14:33:20.654609</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888935</t>
+          <t>2021-10-05 14:33:20.654611</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888938</t>
+          <t>2021-10-05 14:33:20.654614</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888940</t>
+          <t>2021-10-05 14:33:20.654617</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888943</t>
+          <t>2021-10-05 14:33:20.654620</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888945</t>
+          <t>2021-10-05 14:33:20.654623</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888948</t>
+          <t>2021-10-05 14:33:20.654626</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888950</t>
+          <t>2021-10-05 14:33:20.654628</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888953</t>
+          <t>2021-10-05 14:33:20.654631</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888955</t>
+          <t>2021-10-05 14:33:20.654634</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888958</t>
+          <t>2021-10-05 14:33:20.654637</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888961</t>
+          <t>2021-10-05 14:33:20.654639</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888963</t>
+          <t>2021-10-05 14:33:20.654642</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888966</t>
+          <t>2021-10-05 14:33:20.654645</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888968</t>
+          <t>2021-10-05 14:33:20.654647</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888970</t>
+          <t>2021-10-05 14:33:20.654650</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888973</t>
+          <t>2021-10-05 14:33:20.654653</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888975</t>
+          <t>2021-10-05 14:33:20.654655</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888978</t>
+          <t>2021-10-05 14:33:20.654658</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888980</t>
+          <t>2021-10-05 14:33:20.654661</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888982</t>
+          <t>2021-10-05 14:33:20.654663</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888985</t>
+          <t>2021-10-05 14:33:20.654666</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888987</t>
+          <t>2021-10-05 14:33:20.654668</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888990</t>
+          <t>2021-10-05 14:33:20.654671</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888992</t>
+          <t>2021-10-05 14:33:20.654674</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888995</t>
+          <t>2021-10-05 14:33:20.654677</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.888998</t>
+          <t>2021-10-05 14:33:20.654679</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889000</t>
+          <t>2021-10-05 14:33:20.654682</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889003</t>
+          <t>2021-10-05 14:33:20.654685</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889005</t>
+          <t>2021-10-05 14:33:20.654687</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889008</t>
+          <t>2021-10-05 14:33:20.654690</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889011</t>
+          <t>2021-10-05 14:33:20.654693</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889013</t>
+          <t>2021-10-05 14:33:20.654696</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889016</t>
+          <t>2021-10-05 14:33:20.654699</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889018</t>
+          <t>2021-10-05 14:33:20.654702</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889021</t>
+          <t>2021-10-05 14:33:20.654704</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889023</t>
+          <t>2021-10-05 14:33:20.654707</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889027</t>
+          <t>2021-10-05 14:33:20.654712</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889030</t>
+          <t>2021-10-05 14:33:20.654715</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889032</t>
+          <t>2021-10-05 14:33:20.654718</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889035</t>
+          <t>2021-10-05 14:33:20.654721</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889037</t>
+          <t>2021-10-05 14:33:20.654724</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889040</t>
+          <t>2021-10-05 14:33:20.654726</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889042</t>
+          <t>2021-10-05 14:33:20.654729</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889045</t>
+          <t>2021-10-05 14:33:20.654732</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889047</t>
+          <t>2021-10-05 14:33:20.654734</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889050</t>
+          <t>2021-10-05 14:33:20.654737</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889052</t>
+          <t>2021-10-05 14:33:20.654740</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889055</t>
+          <t>2021-10-05 14:33:20.654742</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889057</t>
+          <t>2021-10-05 14:33:20.654745</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889060</t>
+          <t>2021-10-05 14:33:20.654748</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889062</t>
+          <t>2021-10-05 14:33:20.654750</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889065</t>
+          <t>2021-10-05 14:33:20.654753</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889067</t>
+          <t>2021-10-05 14:33:20.654756</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889070</t>
+          <t>2021-10-05 14:33:20.654759</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889073</t>
+          <t>2021-10-05 14:33:20.654761</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889075</t>
+          <t>2021-10-05 14:33:20.654765</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889078</t>
+          <t>2021-10-05 14:33:20.654767</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889080</t>
+          <t>2021-10-05 14:33:20.654770</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889083</t>
+          <t>2021-10-05 14:33:20.654773</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889085</t>
+          <t>2021-10-05 14:33:20.654775</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889088</t>
+          <t>2021-10-05 14:33:20.654778</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889090</t>
+          <t>2021-10-05 14:33:20.654781</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889093</t>
+          <t>2021-10-05 14:33:20.654783</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889095</t>
+          <t>2021-10-05 14:33:20.654786</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889098</t>
+          <t>2021-10-05 14:33:20.654789</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889100</t>
+          <t>2021-10-05 14:33:20.654791</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889103</t>
+          <t>2021-10-05 14:33:20.654794</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889105</t>
+          <t>2021-10-05 14:33:20.654796</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889108</t>
+          <t>2021-10-05 14:33:20.654799</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889110</t>
+          <t>2021-10-05 14:33:20.654802</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889113</t>
+          <t>2021-10-05 14:33:20.654804</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889116</t>
+          <t>2021-10-05 14:33:20.654807</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889118</t>
+          <t>2021-10-05 14:33:20.654810</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889121</t>
+          <t>2021-10-05 14:33:20.654812</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889123</t>
+          <t>2021-10-05 14:33:20.654815</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889126</t>
+          <t>2021-10-05 14:33:20.654818</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889129</t>
+          <t>2021-10-05 14:33:20.654820</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889131</t>
+          <t>2021-10-05 14:33:20.654823</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889134</t>
+          <t>2021-10-05 14:33:20.654826</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889136</t>
+          <t>2021-10-05 14:33:20.654829</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889139</t>
+          <t>2021-10-05 14:33:20.654831</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889141</t>
+          <t>2021-10-05 14:33:20.654834</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889144</t>
+          <t>2021-10-05 14:33:20.654837</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889146</t>
+          <t>2021-10-05 14:33:20.654839</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889150</t>
+          <t>2021-10-05 14:33:20.654844</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889153</t>
+          <t>2021-10-05 14:33:20.654847</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889156</t>
+          <t>2021-10-05 14:33:20.654850</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889158</t>
+          <t>2021-10-05 14:33:20.654853</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889161</t>
+          <t>2021-10-05 14:33:20.654855</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889164</t>
+          <t>2021-10-05 14:33:20.654858</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889166</t>
+          <t>2021-10-05 14:33:20.654861</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889169</t>
+          <t>2021-10-05 14:33:20.654863</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889172</t>
+          <t>2021-10-05 14:33:20.654866</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889174</t>
+          <t>2021-10-05 14:33:20.654868</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889177</t>
+          <t>2021-10-05 14:33:20.654871</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889180</t>
+          <t>2021-10-05 14:33:20.654874</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889182</t>
+          <t>2021-10-05 14:33:20.654876</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889185</t>
+          <t>2021-10-05 14:33:20.654879</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889187</t>
+          <t>2021-10-05 14:33:20.654881</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889190</t>
+          <t>2021-10-05 14:33:20.654884</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889193</t>
+          <t>2021-10-05 14:33:20.654887</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889196</t>
+          <t>2021-10-05 14:33:20.654889</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889198</t>
+          <t>2021-10-05 14:33:20.654892</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889201</t>
+          <t>2021-10-05 14:33:20.654895</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889204</t>
+          <t>2021-10-05 14:33:20.654898</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,91 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:19.889206</t>
+          <t>2021-10-05 14:33:20.654900</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Callosome</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>205</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.327</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T07:07:22.679765Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:20.649987</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/205/?format=json</t>
         </is>
       </c>
     </row>
